--- a/script/team_info.xlsx
+++ b/script/team_info.xlsx
@@ -69,9 +69,6 @@
     <t>马亿</t>
   </si>
   <si>
-    <t>Offline Reinforcement Learning, RL for application</t>
-  </si>
-  <si>
     <t>https://mayi1996.top/</t>
   </si>
   <si>
@@ -397,6 +394,10 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaa\nOffline Reinforcement Learning\nRL &lt;br&gt;for application</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +820,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,25 +840,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -868,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>2020</v>
@@ -877,13 +878,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -891,10 +892,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3">
         <v>2022</v>
@@ -903,13 +904,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -917,10 +918,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
       </c>
       <c r="D4">
         <v>2022</v>
@@ -929,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -943,10 +944,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
       </c>
       <c r="D5">
         <v>2021</v>
@@ -955,13 +956,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -969,10 +970,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>2020</v>
@@ -981,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
         <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -995,10 +996,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
       </c>
       <c r="D7">
         <v>2023</v>
@@ -1007,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1018,10 +1019,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>2020</v>
@@ -1030,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>2022</v>
@@ -1062,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1099,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>2022</v>
@@ -1148,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13">
         <v>2023</v>
@@ -1160,13 +1161,13 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1174,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14">
         <v>2023</v>
@@ -1186,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
         <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1200,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
       <c r="D15">
         <v>2023</v>
@@ -1212,13 +1213,13 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1226,10 +1227,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -1238,13 +1239,13 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
         <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1252,10 +1253,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17">
         <v>2022</v>
@@ -1264,13 +1265,13 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
         <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1278,10 +1279,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
       </c>
       <c r="D18">
         <v>2021</v>
@@ -1290,13 +1291,13 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
         <v>42</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1304,10 +1305,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
       </c>
       <c r="D19">
         <v>2022</v>
@@ -1316,13 +1317,13 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1330,10 +1331,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
       </c>
       <c r="D20">
         <v>2021</v>
@@ -1342,13 +1343,13 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
         <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1356,10 +1357,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
       </c>
       <c r="D21">
         <v>2021</v>
@@ -1368,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1382,10 +1383,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
       </c>
       <c r="D22">
         <v>2023</v>
@@ -1394,13 +1395,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
         <v>58</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1408,10 +1409,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
       </c>
       <c r="D23">
         <v>2022</v>
@@ -1420,13 +1421,13 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
         <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1434,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
       </c>
       <c r="D24">
         <v>2023</v>
@@ -1446,13 +1447,13 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/script/team_info.xlsx
+++ b/script/team_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
   <si>
     <t>序号</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Pengyi Li</t>
-  </si>
-  <si>
-    <t>演化强化学习，多智能体强化学习</t>
   </si>
   <si>
     <t>github.com/yeshenpy</t>
@@ -397,7 +394,61 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aaaaaa\nOffline Reinforcement Learning\nRL &lt;br&gt;for application</t>
+    <t>孙琦淞</t>
+  </si>
+  <si>
+    <t>Qisong Sun</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning, Automated Negotiation</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_24_q7_1691997701MFS5J4.jpg?attname=24_7_%e8%af%81%e4%bb%b6%e7%85%a7.jpg&amp;e=1699841047&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:thoLcO0bQyZ0s7K0SQLD-pB7kz4=</t>
+  </si>
+  <si>
+    <t>张慧斌</t>
+  </si>
+  <si>
+    <t>Huibin Zhang</t>
+  </si>
+  <si>
+    <t>natural language processing</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_24_q7_1691997415Z4cJh7.jpg?attname=25_7_%e5%be%ae%e4%bf%a1%e5%9b%be%e7%89%87_20230610172844.jpg&amp;e=1699841047&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:IuNVfcJPbh-JNfs_MjlYgZWlVTA=</t>
+  </si>
+  <si>
+    <t>赵佳宁</t>
+  </si>
+  <si>
+    <t>Jianing Zhao</t>
+  </si>
+  <si>
+    <t>Autonomous Negotiating, Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_26_q7_1692003651PB7hmB.jpeg?attname=26_7_IMG_2013.jpeg&amp;e=1699841047&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:Tw8Jw5YstDZcKsk7_XkRUAdUcj8=</t>
+  </si>
+  <si>
+    <t>王莹玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Yingyu</t>
+  </si>
+  <si>
+    <t>Research and Application of Digital Therapy Technology Based on Somatosensory Recognition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_27_q7_1692014550zGBcH6.jpg?attname=27_7_MTXX_MR20230814_160343396.jpg&amp;e=1699841047&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:SvfVKI7439SP0LCRjXL71PiEeBI=</t>
+  </si>
+  <si>
+    <t>Offline Reinforcement Learning; RL for application</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evolutionary reinforcement learning, Multiagent reinforcement learning</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -817,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -840,25 +891,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -869,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>2020</v>
@@ -878,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -889,54 +940,54 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -944,10 +995,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
       </c>
       <c r="D5">
         <v>2021</v>
@@ -956,296 +1007,299 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>81</v>
+      <c r="H8" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>90</v>
+      <c r="H9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D11">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D14">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
       </c>
-      <c r="H14" t="s">
-        <v>28</v>
+      <c r="H14" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1253,10 +1307,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>2022</v>
@@ -1265,50 +1319,50 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>2022</v>
@@ -1317,76 +1371,76 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>2023</v>
@@ -1395,50 +1449,50 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>2023</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23">
-        <v>2022</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
       <c r="G23" t="s">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>2023</v>
@@ -1447,23 +1501,127 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>2023</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>2023</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>75</v>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>2023</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>2023</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H23">
-    <sortCondition ref="E1"/>
+  <sortState ref="A2:H28">
+    <sortCondition ref="D1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H21" r:id="rId2"/>
+    <hyperlink ref="H14" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/script/team_info.xlsx
+++ b/script/team_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
   <si>
     <t>序号</t>
   </si>
@@ -449,6 +449,18 @@
   </si>
   <si>
     <t>Evolutionary reinforcement learning, Multiagent reinforcement learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Yang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning, Artificial Intelligence</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -868,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,39 +1186,39 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>2022</v>
@@ -1215,50 +1227,50 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>2022</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -1267,24 +1279,24 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
-        <v>7</v>
+      <c r="H15" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2022</v>
@@ -1293,24 +1305,24 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>2022</v>
@@ -1319,24 +1331,24 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>2022</v>
@@ -1345,24 +1357,24 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>2022</v>
@@ -1371,24 +1383,24 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>2022</v>
@@ -1397,36 +1409,36 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>66</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>115</v>
@@ -1434,39 +1446,39 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>2023</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>2023</v>
@@ -1475,24 +1487,24 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>2023</v>
@@ -1501,24 +1513,24 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D25">
         <v>2023</v>
@@ -1527,24 +1539,24 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -1553,24 +1565,24 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>2023</v>
@@ -1579,24 +1591,24 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>2023</v>
@@ -1605,22 +1617,48 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29">
+        <v>2023</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
       </c>
-      <c r="G28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H28">
-    <sortCondition ref="D1"/>
+  <sortState ref="A2:H29">
+    <sortCondition ref="D4"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1"/>
+    <hyperlink ref="H15" r:id="rId1"/>
     <hyperlink ref="H8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/script/team_info.xlsx
+++ b/script/team_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
   <si>
     <t>序号</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Pengyi Li</t>
   </si>
   <si>
-    <t>github.com/yeshenpy</t>
-  </si>
-  <si>
     <t>https://pubuserqiniu.paperol.cn/230948160_6_q7_1691407175FSbCJd.jpg?attname=7_7_IMG_20230807_191721.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:SxrXWOUuv7OPrqFo8xQrcNQUXYM=</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t>LLM for Control, Offline Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=kaQS7NAAAAAJ</t>
   </si>
   <si>
     <t>https://pubuserqiniu.paperol.cn/230948160_18_q7_1691563523QKWQF7.jpg?attname=18_7_%e5%be%ae%e4%bf%a1%e5%9b%be%e7%89%87_20230809144507.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:p497SG9qtjy05D-nJMUcYQ0PC2E=</t>
@@ -461,6 +455,34 @@
   </si>
   <si>
     <t>Deep Reinforcement Learning, Artificial Intelligence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>College of Intelligence and Computing, Tianjin University</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>School of New Media and Communication, Tianjin University</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>School of New Media and Communication, Tianjin University</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>School of New Media and Communication, Tianjin University</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=kaQS7NAAAAAJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/yeshenpy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -880,51 +902,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="80.140625" customWidth="1"/>
-    <col min="7" max="7" width="50.85546875" customWidth="1"/>
-    <col min="8" max="8" width="241.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" customWidth="1"/>
+    <col min="6" max="6" width="94.36328125" customWidth="1"/>
+    <col min="7" max="7" width="80.1796875" customWidth="1"/>
+    <col min="8" max="8" width="50.81640625" customWidth="1"/>
+    <col min="9" max="9" width="241.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -932,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>2020</v>
@@ -941,24 +967,27 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>2020</v>
@@ -967,24 +996,27 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>2020</v>
@@ -993,24 +1025,27 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>2021</v>
@@ -1019,24 +1054,27 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
       <c r="D6">
         <v>2021</v>
@@ -1045,24 +1083,27 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
       </c>
       <c r="D7">
         <v>2021</v>
@@ -1071,24 +1112,27 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
       </c>
       <c r="D8">
         <v>2021</v>
@@ -1097,24 +1141,27 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>2021</v>
@@ -1123,24 +1170,27 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10">
         <v>2021</v>
@@ -1149,24 +1199,27 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>2021</v>
@@ -1175,24 +1228,27 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12">
         <v>2021</v>
@@ -1204,13 +1260,16 @@
         <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1227,24 +1286,27 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
       </c>
       <c r="D14">
         <v>2022</v>
@@ -1253,16 +1315,19 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
         <v>60</v>
       </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1270,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -1279,16 +1344,19 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1305,16 +1373,19 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
       <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1322,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>2022</v>
@@ -1331,24 +1402,27 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>2022</v>
@@ -1357,24 +1431,27 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
       <c r="D19">
         <v>2022</v>
@@ -1383,24 +1460,27 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>2022</v>
@@ -1409,24 +1489,27 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21">
         <v>2022</v>
@@ -1435,24 +1518,27 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>2023</v>
@@ -1461,16 +1547,19 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
         <v>101</v>
       </c>
-      <c r="G22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1487,16 +1576,19 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1504,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>2023</v>
@@ -1513,24 +1605,27 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>2023</v>
@@ -1539,24 +1634,27 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
         <v>26</v>
       </c>
-      <c r="G25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -1565,24 +1663,27 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
       <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
       </c>
       <c r="D27">
         <v>2023</v>
@@ -1591,24 +1692,27 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
         <v>33</v>
       </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
       <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
       </c>
       <c r="D28">
         <v>2023</v>
@@ -1617,24 +1721,27 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
         <v>56</v>
       </c>
-      <c r="G28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29">
         <v>2023</v>
@@ -1643,13 +1750,16 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1658,10 +1768,12 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1"/>
-    <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="I15" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="H14" r:id="rId3"/>
+    <hyperlink ref="H13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/script/team_info.xlsx
+++ b/script/team_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rl.beiyang.ren\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iffyuan/Documents/Website/rl.beiyang.ren/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C469BB48-BD28-48B4-BF6E-F9FBCD648130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A5F7D5-C57A-174B-93FA-D39A8EDDC1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,41 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>李依宁</t>
-  </si>
-  <si>
-    <t>transfer learning</t>
-  </si>
-  <si>
     <t>(空)</t>
   </si>
   <si>
-    <t>傅贤</t>
-  </si>
-  <si>
-    <t>Xian Fu</t>
-  </si>
-  <si>
-    <t>Reinfocement Learning, Evolutionary Reinfocement Learning</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_1_q7_1691395434Kd6J6x.jpeg?attname=2_7_7496D073-9B73-4406-A9A7-FDE204D21087.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:L5lpoRxQp-oprJpS35ItFmXK6rk=</t>
-  </si>
-  <si>
-    <t>刘嘉顺</t>
-  </si>
-  <si>
-    <t>Large language models, real time control</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_3_q7_1691395477G45c8R.jpeg?attname=3_7_AE1D1D58-72E8-4225-8B1E-7F9480BFD7F4.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:Xtgc5v59pD3bc3STFqqMpzQncCk=</t>
-  </si>
-  <si>
     <t>寇龙馨</t>
   </si>
   <si>
@@ -115,27 +88,6 @@
     <t>https://pubuserqiniu.paperol.cn/230948160_11_q7_1691485335i2Rkfx.jpeg?attname=11_7_9d94ac3bbcd043c893b641a57a3641f2.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:KNDsuWd0rRjYnJ_57Bn3Ki_KK14=</t>
   </si>
   <si>
-    <t>张豪</t>
-  </si>
-  <si>
-    <t>Transfer reinforcement learning</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_12_q7_1691490216rcPmJj.jpeg?attname=12_7_01F78DEE-99AD-4ECC-8383-05945B13D0F5.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:7FjWa2fIEP7WcS59qkRFeQf84wA=</t>
-  </si>
-  <si>
-    <t>连士熙</t>
-  </si>
-  <si>
-    <t>Shixi Lian</t>
-  </si>
-  <si>
-    <t>Offline RL</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_13_q7_16915494563bmsE7.jpg?attname=14_7_IMG_20230809_105040.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:ekKk3R3A0UtkR6XeUEtciw9fVWI=</t>
-  </si>
-  <si>
     <t>Offline Reinforcement Learning</t>
   </si>
   <si>
@@ -163,18 +115,6 @@
     <t>https://pubuserqiniu.paperol.cn/230948160_18_q7_1691563523QKWQF7.jpg?attname=18_7_%e5%be%ae%e4%bf%a1%e5%9b%be%e7%89%87_20230809144507.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:p497SG9qtjy05D-nJMUcYQ0PC2E=</t>
   </si>
   <si>
-    <t>石磊</t>
-  </si>
-  <si>
-    <t>Lei Shi</t>
-  </si>
-  <si>
-    <t>Self-supervised Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_19_q7_1691566542hSkY2G.jpeg?attname=19_7_ee16ad54ccf55b7155c84d350209ebc8.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:S4wphWlv07dXNkYEx1fNGRt48ns=</t>
-  </si>
-  <si>
     <t>倪飞</t>
   </si>
   <si>
@@ -208,14 +148,6 @@
     <t>https://pubuserqiniu.paperol.cn/230948160_22_q7_1691591563Etemha.jpg?attname=22_7_zm.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:mIh4lRTsdguvHohxZ-GgVqYiLeM=</t>
   </si>
   <si>
-    <t>Yining Li</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiashun Liu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Peilong Han</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -224,15 +156,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hao Zhang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Min Zhang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_1_q7_1691395394iNdk78.jpeg?attname=1_7_6CDDE2B9-141C-4E41-B04A-F1706B497787.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:5i0T-wbJBRhgQkDQM3u-7WiBBzs=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -468,12 +392,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -536,10 +460,10 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -904,63 +828,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="94.42578125" customWidth="1"/>
-    <col min="7" max="7" width="80.140625" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" customWidth="1"/>
-    <col min="9" max="9" width="241.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="94.5" customWidth="1"/>
+    <col min="7" max="7" width="80.1640625" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="241.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14">
       <c r="A2">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>2020</v>
@@ -969,27 +893,27 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>2021</v>
@@ -998,27 +922,27 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2022</v>
@@ -1027,27 +951,27 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2022</v>
@@ -1056,230 +980,230 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
       <c r="D7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
       <c r="D11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
-        <v>66</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>2023</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>123</v>
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>2023</v>
@@ -1288,481 +1212,306 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="6">
         <v>2023</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
+        <v>59</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6">
         <v>2023</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="14">
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>2024</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>2024</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E22" s="6">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="E23" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22">
-        <v>2024</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23">
-        <v>2024</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="14">
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
         <v>100</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D24">
         <v>2024</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
       </c>
       <c r="H24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="14">
+      <c r="B25" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <v>2024</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26">
-        <v>2024</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27">
-        <v>2024</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E28" s="6">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E29" s="6">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30">
-        <v>2024</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>2024</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H23" r:id="rId3" xr:uid="{ECB41AA7-9B56-4F44-98CB-8C6C0AD8DC24}"/>
-    <hyperlink ref="H26" r:id="rId4" xr:uid="{0DD1F1F2-ADBD-4C48-8F4F-274664D0CF3D}"/>
-    <hyperlink ref="H4" r:id="rId5" xr:uid="{08F6FC00-C383-474A-941A-3CDDDB1C4E74}"/>
-    <hyperlink ref="H18" r:id="rId6" xr:uid="{CBA4F03A-306E-4A98-8AC4-296FE2B6E6A7}"/>
-    <hyperlink ref="H16" r:id="rId7" xr:uid="{9943C959-DBD8-4DC4-8C8E-EEE820EB30E7}"/>
-    <hyperlink ref="H13" r:id="rId8" xr:uid="{EFCCE435-F165-4F2C-AA8B-4E38E6B3ABCC}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H17" r:id="rId2" xr:uid="{ECB41AA7-9B56-4F44-98CB-8C6C0AD8DC24}"/>
+    <hyperlink ref="H20" r:id="rId3" xr:uid="{0DD1F1F2-ADBD-4C48-8F4F-274664D0CF3D}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{08F6FC00-C383-474A-941A-3CDDDB1C4E74}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{CBA4F03A-306E-4A98-8AC4-296FE2B6E6A7}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{9943C959-DBD8-4DC4-8C8E-EEE820EB30E7}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{EFCCE435-F165-4F2C-AA8B-4E38E6B3ABCC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/script/team_info.xlsx
+++ b/script/team_info.xlsx
@@ -1,217 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iffyuan/Documents/Website/rl.beiyang.ren/script/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A5F7D5-C57A-174B-93FA-D39A8EDDC1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="142">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>(空)</t>
-  </si>
-  <si>
-    <t>寇龙馨</t>
-  </si>
-  <si>
-    <t>Longxin Kou</t>
-  </si>
-  <si>
-    <t>Deep Reinforcement Learning; Deep Learning; LLM</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_4_q7_1691395566YHKwci.jpeg?attname=4_7_mmexport7bb1e36bedd40dbbb48488ab1999d7e8_1647059483767.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:rd-eT3mRtS-QZR0j2KJcZFxl9k4=</t>
-  </si>
-  <si>
-    <t>韩沛龙</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_6_q7_1691405165S2h3DM.jpeg?attname=6_7_4ca5d992f98e1d4cfb3bfb2b2028da28.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:-DzF1q-ibPps_tiqwHhsFxvjEz4=</t>
-  </si>
-  <si>
-    <t>李鹏翼</t>
-  </si>
-  <si>
-    <t>Pengyi Li</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_6_q7_1691407175FSbCJd.jpg?attname=7_7_IMG_20230807_191721.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:SxrXWOUuv7OPrqFo8xQrcNQUXYM=</t>
-  </si>
-  <si>
-    <t>冯之欣</t>
-  </si>
-  <si>
-    <t>RLHF</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_7_q7_1691407701ApEnN3.png?attname=8_7_20230807192705941.png&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:vW7sHuwFNP5NkL-8K19p0msvJ6w=</t>
-  </si>
-  <si>
-    <t>董子斌</t>
-  </si>
-  <si>
-    <t>Zibin Dong</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_9_q7_1691420378Ejdx4W.jpg?attname=9_7_%e5%be%ae%e4%bf%a1%e5%9b%be%e7%89%87_20230807225352.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:PA9JNYLz_xc_XY9bRZ3ztd1O-TY=</t>
-  </si>
-  <si>
-    <t>陈逸彬</t>
-  </si>
-  <si>
-    <t>Yibin Chen</t>
-  </si>
-  <si>
-    <t>RLHF LLM</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_11_q7_1691485335i2Rkfx.jpeg?attname=11_7_9d94ac3bbcd043c893b641a57a3641f2.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:KNDsuWd0rRjYnJ_57Bn3Ki_KK14=</t>
-  </si>
-  <si>
-    <t>Offline Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>符凌智</t>
-  </si>
-  <si>
-    <t>Lingzhi Fu</t>
-  </si>
-  <si>
-    <t>Reinforcement Learning, Representation Learning</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_17_q7_1691557299yJ6Xxa.jpg?attname=17_7_mmexport1691556487651.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:PDLVQEB6LaCud6WcVPLa26k4afQ=</t>
-  </si>
-  <si>
-    <t>刘金毅</t>
-  </si>
-  <si>
-    <t>Jinyi Liu</t>
-  </si>
-  <si>
-    <t>LLM for Control, Offline Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_18_q7_1691563523QKWQF7.jpg?attname=18_7_%e5%be%ae%e4%bf%a1%e5%9b%be%e7%89%87_20230809144507.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:p497SG9qtjy05D-nJMUcYQ0PC2E=</t>
-  </si>
-  <si>
-    <t>倪飞</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>Model based RL; Diffusion for RL; LLM</t>
-  </si>
-  <si>
-    <t>https://fei-ni.github.io</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_18_q7_1691566953phrMka.jpg?attname=20_7_%e8%af%81%e4%bb%b6%e7%85%a71_1.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:V4xgygdN3C4K0YvwD90au26bLWg=</t>
-  </si>
-  <si>
-    <t>梁贺斌</t>
-  </si>
-  <si>
-    <t>Hebin Liang</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_21_q7_1691576043idtDEj.jpg?attname=21_7_IMG_20230809_181326.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:P9SVD4R9x7HwpV5Q8WC4e7EpC5I=</t>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>入学年份</t>
+  </si>
+  <si>
+    <t>身份</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>研究方向（英文）</t>
+  </si>
+  <si>
+    <t>个人主页链接</t>
+  </si>
+  <si>
+    <t>照片</t>
   </si>
   <si>
     <t>张敏</t>
   </si>
   <si>
+    <t>Min Zhang</t>
+  </si>
+  <si>
+    <t>College of Intelligence and Computing, Tianjin University</t>
+  </si>
+  <si>
     <t>Self-Supervised Reinforcement Learning</t>
   </si>
   <si>
-    <t>https://pubuserqiniu.paperol.cn/230948160_22_q7_1691591563Etemha.jpg?attname=22_7_zm.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:mIh4lRTsdguvHohxZ-GgVqYiLeM=</t>
-  </si>
-  <si>
-    <t>Peilong Han</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhixin Feng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min Zhang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入学年份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究方向（英文）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁逸夫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yifu Yuan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model Based Reinforcement Learning; Generative Models; Diffusion Models for Decision Making</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model Based RL; Reinforcement with Human Feedback; Generative Models</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>空</t>
@@ -220,130 +88,241 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_22_q7_1691591563Etemha.jpg?attname=22_7_zm.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:mIh4lRTsdguvHohxZ-GgVqYiLeM=</t>
+  </si>
+  <si>
+    <t>李鹏翼</t>
+  </si>
+  <si>
+    <t>Pengyi Li</t>
+  </si>
+  <si>
+    <t>Evolutionary Reinforcement Learning, MARL, MORL, LLM Agent</t>
+  </si>
+  <si>
+    <t>https://yeshenpy.github.io/</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_6_q7_1691407175FSbCJd.jpg?attname=7_7_IMG_20230807_191721.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:SxrXWOUuv7OPrqFo8xQrcNQUXYM=</t>
+  </si>
+  <si>
+    <t>刘金毅</t>
+  </si>
+  <si>
+    <t>Jinyi Liu</t>
+  </si>
+  <si>
+    <t>LLM for Control, Offline Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=kaQS7NAAAAAJ</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_18_q7_1691563523QKWQF7.jpg?attname=18_7_%e5%be%ae%e4%bf%a1%e5%9b%be%e7%89%87_20230809144507.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:p497SG9qtjy05D-nJMUcYQ0PC2E=</t>
+  </si>
+  <si>
+    <t>袁逸夫</t>
+  </si>
+  <si>
+    <t>Yifu Yuan</t>
+  </si>
+  <si>
+    <t>Model Based RL; Reinforcement with Human Feedback; Generative Models</t>
+  </si>
+  <si>
+    <t>https://yifu-yuan.github.io/</t>
   </si>
   <si>
     <t>https://pubuserqiniu.paperol.cn/230948160_26_q7_1692003651PB7hmB.jpeg?attname=26_7_IMG_2013.jpeg&amp;e=1699841047&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:Tw8Jw5YstDZcKsk7_XkRUAdUcj8=</t>
   </si>
   <si>
-    <t>学院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>College of Intelligence and Computing, Tianjin University</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>寇龙馨</t>
+  </si>
+  <si>
+    <t>Longxin Kou</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning; Deep Learning; LLM</t>
+  </si>
+  <si>
+    <t>https://longxinkou.github.io/</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_4_q7_1691395566YHKwci.jpeg?attname=4_7_mmexport7bb1e36bedd40dbbb48488ab1999d7e8_1647059483767.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:rd-eT3mRtS-QZR0j2KJcZFxl9k4=</t>
+  </si>
+  <si>
+    <t>韩沛龙</t>
+  </si>
+  <si>
+    <t>Peilong Han</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>(空)</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_6_q7_1691405165S2h3DM.jpeg?attname=6_7_4ca5d992f98e1d4cfb3bfb2b2028da28.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:-DzF1q-ibPps_tiqwHhsFxvjEz4=</t>
+  </si>
+  <si>
+    <t>冯之欣</t>
+  </si>
+  <si>
+    <t>Zhixin Feng</t>
   </si>
   <si>
     <t>School of New Media and Communication, Tianjin University</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>School of New Media and Communication, Tianjin University</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=kaQS7NAAAAAJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLHF</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_7_q7_1691407701ApEnN3.png?attname=8_7_20230807192705941.png&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:vW7sHuwFNP5NkL-8K19p0msvJ6w=</t>
+  </si>
+  <si>
+    <t>董子斌</t>
+  </si>
+  <si>
+    <t>Zibin Dong</t>
+  </si>
+  <si>
+    <t>Model Based Reinforcement Learning; Generative Models; Diffusion Models for Decision Making</t>
+  </si>
+  <si>
+    <t>https://zibindong.github.io/</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_9_q7_1691420378Ejdx4W.jpg?attname=9_7_%e5%be%ae%e4%bf%a1%e5%9b%be%e7%89%87_20230807225352.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:PA9JNYLz_xc_XY9bRZ3ztd1O-TY=</t>
+  </si>
+  <si>
+    <t>陈逸彬</t>
+  </si>
+  <si>
+    <t>Yibin Chen</t>
+  </si>
+  <si>
+    <t>RLHF LLM</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_11_q7_1691485335i2Rkfx.jpeg?attname=11_7_9d94ac3bbcd043c893b641a57a3641f2.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:KNDsuWd0rRjYnJ_57Bn3Ki_KK14=</t>
+  </si>
+  <si>
+    <t>符凌智</t>
+  </si>
+  <si>
+    <t>Lingzhi Fu</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning, Representation Learning</t>
+  </si>
+  <si>
+    <t>https://Flz233.github.io/</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_17_q7_1691557299yJ6Xxa.jpg?attname=17_7_mmexport1691556487651.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:PDLVQEB6LaCud6WcVPLa26k4afQ=</t>
+  </si>
+  <si>
+    <t>梁贺斌</t>
+  </si>
+  <si>
+    <t>Hebin Liang</t>
+  </si>
+  <si>
+    <t>Offline Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_21_q7_1691576043idtDEj.jpg?attname=21_7_IMG_20230809_181326.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:P9SVD4R9x7HwpV5Q8WC4e7EpC5I=</t>
+  </si>
+  <si>
+    <t>程荣</t>
+  </si>
+  <si>
+    <t>Rong Cheng</t>
+  </si>
+  <si>
+    <t>LLM, agent, RAG</t>
+  </si>
+  <si>
+    <t>乔金彬</t>
+  </si>
+  <si>
+    <t>Jinbin Qiao</t>
+  </si>
+  <si>
+    <t>Robotics</t>
   </si>
   <si>
     <t>李明峙</t>
   </si>
   <si>
+    <t>Mingzhi Li</t>
+  </si>
+  <si>
+    <t>Embodied AI,Robotics</t>
+  </si>
+  <si>
     <t>李雨霄</t>
   </si>
   <si>
+    <t>Yuxiao Li</t>
+  </si>
+  <si>
+    <t>Embodied AI, MLLM</t>
+  </si>
+  <si>
+    <t>https://ly-xxx.github.io/</t>
+  </si>
+  <si>
     <t>张硕恒</t>
   </si>
   <si>
+    <t>Shuoheng Zhang</t>
+  </si>
+  <si>
     <t>马绍津</t>
   </si>
   <si>
+    <t>Shaojin Ma</t>
+  </si>
+  <si>
+    <t>Embodied AI, MLLM, LLM Agent</t>
+  </si>
+  <si>
     <t>崔海勤</t>
   </si>
   <si>
+    <t>Haiqin Cui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robotics, Sim2Real, Embodied AI </t>
+  </si>
+  <si>
+    <t>https://18kas.com/cv</t>
+  </si>
+  <si>
     <t>王瑞涛</t>
   </si>
   <si>
-    <t>Mingzhi Li</t>
-  </si>
-  <si>
-    <t>Yuxiao Li</t>
-  </si>
-  <si>
-    <t>Shuoheng Zhang</t>
-  </si>
-  <si>
-    <t>Shaojin Ma</t>
-  </si>
-  <si>
-    <t>Haiqin Cui</t>
-  </si>
-  <si>
     <t>Ruitao Wang</t>
   </si>
   <si>
-    <t>Embodied AI,Robotics</t>
-  </si>
-  <si>
-    <t>Embodied AI, MLLM</t>
-  </si>
-  <si>
-    <t>Embodied AI, MLLM, LLM Agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robotics, Sim2Real, Embodied AI </t>
-  </si>
-  <si>
     <t>LLM Agent</t>
   </si>
   <si>
-    <t>https://ly-xxx.github.io/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://18kas.com/cv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://yeshenpy.github.io/</t>
-  </si>
-  <si>
-    <t>Evolutionary Reinforcement Learning, MARL, MORL, LLM Agent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://Flz233.github.io/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zibindong.github.io/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://longxinkou.github.io/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程荣</t>
-  </si>
-  <si>
-    <t>Rong Cheng</t>
-  </si>
-  <si>
-    <t>LLM, agent, RAG</t>
-  </si>
-  <si>
-    <t>乔金彬</t>
-  </si>
-  <si>
-    <t>Jinbin Qiao</t>
-  </si>
-  <si>
-    <t>Robotics</t>
+    <t>梁靖</t>
+  </si>
+  <si>
+    <t>Jing Liang</t>
+  </si>
+  <si>
+    <t>LLM, Agent</t>
   </si>
   <si>
     <t>刘睿</t>
@@ -362,62 +341,240 @@
   </si>
   <si>
     <t>Embodied AI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://yifu-yuan.github.io/</t>
+  </si>
+  <si>
+    <t>张芊</t>
   </si>
   <si>
     <t>Qian Zhang</t>
   </si>
   <si>
-    <t>张芊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Multi Agent System</t>
   </si>
   <si>
     <t>郭玮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Wei Guo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multi Agent System</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙健耕</t>
+  </si>
+  <si>
+    <t>Jiangeng Sun</t>
+  </si>
+  <si>
+    <t>Embodied AI, Dex Manipulation</t>
+  </si>
+  <si>
+    <t>https://hljmssjg.github.io/</t>
+  </si>
+  <si>
+    <t>廖睿浩</t>
+  </si>
+  <si>
+    <t>Ruihao Liao</t>
+  </si>
+  <si>
+    <t>Embodied AI,Generative Models</t>
+  </si>
+  <si>
+    <t>https://xhslink.com/m/64gn1IZowLT</t>
+  </si>
+  <si>
+    <t>张照</t>
+  </si>
+  <si>
+    <t>Zhao Zhang</t>
+  </si>
+  <si>
+    <t>School of Future Technology, Tianjin University</t>
+  </si>
+  <si>
+    <t>Embodied AI,Robotics,DataOps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>吴启宇</t>
+  </si>
+  <si>
+    <t>Qiyu Wu</t>
+  </si>
+  <si>
+    <t>LLM, Agent, RLVR</t>
+  </si>
+  <si>
+    <t>https://crosser-xdu.github.io/</t>
+  </si>
+  <si>
+    <t>龚心怡</t>
+  </si>
+  <si>
+    <t>Xinyi Gong</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LLM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Agent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>selfplay</t>
+    </r>
+  </si>
+  <si>
+    <t>姚先泽</t>
+  </si>
+  <si>
+    <t>Xianze Yao</t>
+  </si>
+  <si>
+    <t>Embodied AI，RL</t>
+  </si>
+  <si>
+    <t>陈义薄云</t>
+  </si>
+  <si>
+    <t>Yiboyun Chen</t>
+  </si>
+  <si>
+    <t>LLM,RLVR</t>
+  </si>
+  <si>
+    <t>孙宁</t>
+  </si>
+  <si>
+    <t>Ning Sun</t>
+  </si>
+  <si>
+    <t>LLM，memory</t>
+  </si>
+  <si>
+    <t>贾文婷</t>
+  </si>
+  <si>
+    <t>Wenting Jia</t>
+  </si>
+  <si>
+    <t>李玉童</t>
+  </si>
+  <si>
+    <t>Yutong Li</t>
+  </si>
+  <si>
+    <t>https://yutonglilili.github.io/</t>
+  </si>
+  <si>
+    <t>黄垚挺</t>
+  </si>
+  <si>
+    <t>Yaoting Huang</t>
+  </si>
+  <si>
+    <t>Embodied AI,MLLM</t>
+  </si>
+  <si>
+    <t>赵刚毅</t>
+  </si>
+  <si>
+    <t>Gangyi Zhao</t>
+  </si>
+  <si>
+    <t>LLM; Agentic RL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -425,30 +582,367 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF175CEB"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF175CEB"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -456,53 +950,350 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Comma" xfId="49"/>
+    <cellStyle name="Comma [0]" xfId="50"/>
+    <cellStyle name="Currency" xfId="51"/>
+    <cellStyle name="Currency [0]" xfId="52"/>
+    <cellStyle name="Normal" xfId="53"/>
+    <cellStyle name="Percent" xfId="54"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -822,69 +1613,69 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.16666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1666666666667" customWidth="1"/>
     <col min="6" max="6" width="94.5" customWidth="1"/>
-    <col min="7" max="7" width="80.1640625" customWidth="1"/>
-    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="7" max="7" width="80.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="50.8333333333333" customWidth="1"/>
     <col min="9" max="9" width="241.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2020</v>
@@ -893,56 +1684,56 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>2022</v>
@@ -951,85 +1742,85 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14">
-      <c r="A6">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>2023</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>2023</v>
@@ -1038,27 +1829,27 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>2023</v>
@@ -1067,27 +1858,27 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>2023</v>
@@ -1096,27 +1887,27 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>2023</v>
@@ -1125,27 +1916,27 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>2023</v>
@@ -1154,27 +1945,27 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>2023</v>
@@ -1183,99 +1974,93 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5">
         <v>2023</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5">
         <v>2023</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>89</v>
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>2024</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>92</v>
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D16">
         <v>2024</v>
@@ -1284,21 +2069,21 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H16" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>70</v>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D17">
         <v>2024</v>
@@ -1307,21 +2092,21 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
+      <c r="B18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -1330,21 +2115,21 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>72</v>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D19">
         <v>2024</v>
@@ -1353,21 +2138,21 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="14">
-      <c r="B20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D20">
         <v>2024</v>
@@ -1376,90 +2161,90 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="5">
         <v>2024</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1</v>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2022</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="6">
+      <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="5">
         <v>2022</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="5">
         <v>3</v>
       </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="3" t="s">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E23" s="6">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="C24" t="s">
         <v>98</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="14">
-      <c r="B24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
       </c>
       <c r="D24">
         <v>2024</v>
@@ -1468,21 +2253,21 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="14">
-      <c r="B25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D25">
         <v>2024</v>
@@ -1491,27 +2276,307 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E26" s="7">
         <v>1</v>
       </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H17" r:id="rId2" xr:uid="{ECB41AA7-9B56-4F44-98CB-8C6C0AD8DC24}"/>
-    <hyperlink ref="H20" r:id="rId3" xr:uid="{0DD1F1F2-ADBD-4C48-8F4F-274664D0CF3D}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{08F6FC00-C383-474A-941A-3CDDDB1C4E74}"/>
-    <hyperlink ref="H12" r:id="rId5" xr:uid="{CBA4F03A-306E-4A98-8AC4-296FE2B6E6A7}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{9943C959-DBD8-4DC4-8C8E-EEE820EB30E7}"/>
-    <hyperlink ref="H7" r:id="rId7" xr:uid="{EFCCE435-F165-4F2C-AA8B-4E38E6B3ABCC}"/>
+    <hyperlink ref="H4" r:id="rId1" display="https://scholar.google.com/citations?user=kaQS7NAAAAAJ"/>
+    <hyperlink ref="H16" r:id="rId2" display="https://ly-xxx.github.io/"/>
+    <hyperlink ref="H19" r:id="rId3" display="https://18kas.com/cv"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://yeshenpy.github.io/"/>
+    <hyperlink ref="H11" r:id="rId5" display="https://Flz233.github.io/"/>
+    <hyperlink ref="H9" r:id="rId6" display="https://zibindong.github.io/"/>
+    <hyperlink ref="H6" r:id="rId7" display="https://longxinkou.github.io/"/>
+    <hyperlink ref="H29" r:id="rId8" display="https://crosser-xdu.github.io/" tooltip="https://crosser-xdu.github.io/"/>
+    <hyperlink ref="H35" r:id="rId9" display="https://yutonglilili.github.io/" tooltip="https://yutonglilili.github.io/"/>
+    <hyperlink ref="H26" r:id="rId10" display="https://hljmssjg.github.io/" tooltip="https://hljmssjg.github.io/"/>
+    <hyperlink ref="H27" r:id="rId11" display="https://xhslink.com/m/64gn1IZowLT" tooltip="https://xhslink.com/m/64gn1IZowLT"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/script/team_info.xlsx
+++ b/script/team_info.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
   <si>
     <t>序号</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Yifu Yuan</t>
   </si>
   <si>
-    <t>Model Based RL; Reinforcement with Human Feedback; Generative Models</t>
+    <t>Model Based RL, Reinforcement with Human Feedback, Generative Models</t>
   </si>
   <si>
     <t>https://yifu-yuan.github.io/</t>
@@ -148,7 +148,7 @@
     <t>Longxin Kou</t>
   </si>
   <si>
-    <t>Deep Reinforcement Learning; Deep Learning; LLM</t>
+    <t>Deep Reinforcement Learning, Deep Learning, LLM</t>
   </si>
   <si>
     <t>https://longxinkou.github.io/</t>
@@ -163,7 +163,7 @@
     <t>Peilong Han</t>
   </si>
   <si>
-    <t>MA</t>
+    <t>Embodied AI, Navigation</t>
   </si>
   <si>
     <t>(空)</t>
@@ -193,7 +193,7 @@
     <t>Zibin Dong</t>
   </si>
   <si>
-    <t>Model Based Reinforcement Learning; Generative Models; Diffusion Models for Decision Making</t>
+    <t>Model Based Reinforcement Learning, Generative Models, Diffusion Models for Decision Making</t>
   </si>
   <si>
     <t>https://zibindong.github.io/</t>
@@ -247,7 +247,7 @@
     <t>Rong Cheng</t>
   </si>
   <si>
-    <t>LLM, agent, RAG</t>
+    <t>LLM Agent, RAG</t>
   </si>
   <si>
     <t>乔金彬</t>
@@ -265,7 +265,7 @@
     <t>Mingzhi Li</t>
   </si>
   <si>
-    <t>Embodied AI,Robotics</t>
+    <t>Embodied AI, Robotics</t>
   </si>
   <si>
     <t>李雨霄</t>
@@ -322,9 +322,6 @@
     <t>Jing Liang</t>
   </si>
   <si>
-    <t>LLM, Agent</t>
-  </si>
-  <si>
     <t>刘睿</t>
   </si>
   <si>
@@ -349,7 +346,7 @@
     <t>Qian Zhang</t>
   </si>
   <si>
-    <t>Multi Agent System</t>
+    <t>Multi-Agent System</t>
   </si>
   <si>
     <t>郭玮</t>
@@ -364,7 +361,7 @@
     <t>Jiangeng Sun</t>
   </si>
   <si>
-    <t>Embodied AI, Dex Manipulation</t>
+    <t>Embodied AI, Dexterous Manipulation</t>
   </si>
   <si>
     <t>https://hljmssjg.github.io/</t>
@@ -376,7 +373,7 @@
     <t>Ruihao Liao</t>
   </si>
   <si>
-    <t>Embodied AI,Generative Models</t>
+    <t>Embodied AI, Generative Models</t>
   </si>
   <si>
     <t>https://xhslink.com/m/64gn1IZowLT</t>
@@ -391,7 +388,7 @@
     <t>School of Future Technology, Tianjin University</t>
   </si>
   <si>
-    <t>Embodied AI,Robotics,DataOps</t>
+    <t>Embodied AI, Robotics, DataOps</t>
   </si>
   <si>
     <r>
@@ -429,7 +426,7 @@
     <t>Qiyu Wu</t>
   </si>
   <si>
-    <t>LLM, Agent, RLVR</t>
+    <t>LLM Agent, RLVR</t>
   </si>
   <si>
     <t>https://crosser-xdu.github.io/</t>
@@ -441,51 +438,7 @@
     <t>Xinyi Gong</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LLM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Agent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>selfplay</t>
-    </r>
+    <t>LLM Agent, selfplay</t>
   </si>
   <si>
     <t>姚先泽</t>
@@ -494,7 +447,7 @@
     <t>Xianze Yao</t>
   </si>
   <si>
-    <t>Embodied AI，RL</t>
+    <t>Embodied AI, RL</t>
   </si>
   <si>
     <t>陈义薄云</t>
@@ -503,16 +456,13 @@
     <t>Yiboyun Chen</t>
   </si>
   <si>
-    <t>LLM,RLVR</t>
-  </si>
-  <si>
     <t>孙宁</t>
   </si>
   <si>
     <t>Ning Sun</t>
   </si>
   <si>
-    <t>LLM，memory</t>
+    <t>LLM, memory</t>
   </si>
   <si>
     <t>贾文婷</t>
@@ -536,16 +486,25 @@
     <t>Yaoting Huang</t>
   </si>
   <si>
-    <t>Embodied AI,MLLM</t>
-  </si>
-  <si>
     <t>赵刚毅</t>
   </si>
   <si>
     <t>Gangyi Zhao</t>
   </si>
   <si>
-    <t>LLM; Agentic RL</t>
+    <t>LLM, Agentic RL</t>
+  </si>
+  <si>
+    <t>吴子豪</t>
+  </si>
+  <si>
+    <t>ZIhao Wu</t>
+  </si>
+  <si>
+    <t>National University of Singapore Joint Institute in Fuzhou, Tianjin University</t>
+  </si>
+  <si>
+    <t>RL</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1231,6 +1190,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1619,10 +1587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="13.2"/>
@@ -2187,7 +2155,7 @@
         <v>42</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>38</v>
@@ -2195,10 +2163,10 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D22" s="5">
         <v>2022</v>
@@ -2210,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2218,10 +2186,10 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D23" s="5">
         <v>2022</v>
@@ -2233,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s">
         <v>38</v>
@@ -2241,10 +2209,10 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" t="s">
-        <v>98</v>
       </c>
       <c r="D24">
         <v>2024</v>
@@ -2256,7 +2224,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
         <v>38</v>
@@ -2264,10 +2232,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D25">
         <v>2024</v>
@@ -2287,10 +2255,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D26" s="5">
         <v>2025</v>
@@ -2302,18 +2270,18 @@
         <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D27" s="5">
         <v>2025</v>
@@ -2325,18 +2293,18 @@
         <v>11</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D28" s="5">
         <v>2025</v>
@@ -2345,21 +2313,21 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D29" s="5">
         <v>2025</v>
@@ -2371,18 +2339,18 @@
         <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D30" s="5">
         <v>2025</v>
@@ -2391,21 +2359,21 @@
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D31" s="5">
         <v>2025</v>
@@ -2417,18 +2385,18 @@
         <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D32" s="5">
         <v>2025</v>
@@ -2440,18 +2408,18 @@
         <v>42</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="5">
         <v>2025</v>
@@ -2463,18 +2431,18 @@
         <v>42</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="5">
         <v>2025</v>
@@ -2486,18 +2454,18 @@
         <v>11</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D35" s="5">
         <v>2025</v>
@@ -2509,18 +2477,18 @@
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D36" s="5">
         <v>2025</v>
@@ -2532,18 +2500,18 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" s="5">
         <v>2025</v>
@@ -2555,10 +2523,33 @@
         <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="14">
+        <v>2025</v>
+      </c>
+      <c r="E38" s="15">
+        <v>2</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>114</v>
+      <c r="G38" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
